--- a/平成31年度/シースリーカップ/6.大会当日使用/c3cup 優秀選手賞・敢闘賞　選出用紙.xlsx
+++ b/平成31年度/シースリーカップ/6.大会当日使用/c3cup 優秀選手賞・敢闘賞　選出用紙.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\6.大会当日使用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="21">
   <si>
     <t>敢闘賞</t>
     <rPh sb="0" eb="3">
@@ -122,6 +122,54 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>ＢＡＤＢＯＹ’Ｓ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レッドサン東</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>見附ブレイブアローズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沼垂鏡太</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>沼田シリウス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上越南ミニバス教室</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上川西ミニバスクラブ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上組こだまキッズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>槻の森ユナイターズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>内野オールスターズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半田JSCミニバスケットボール部</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃尾ウィザーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -346,7 +394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -368,12 +416,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -386,38 +467,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -723,11 +780,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F263"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
@@ -739,132 +794,1387 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="23"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="17"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="22"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
+      <c r="A3" s="10"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="F3" s="17"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
+      <c r="A4" s="10"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="F4" s="17"/>
+      <c r="F4" s="11"/>
     </row>
     <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="19"/>
-      <c r="F5" s="17"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-      <c r="B6" s="7" t="s">
+      <c r="A6" s="11"/>
+      <c r="B6" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="17"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="17"/>
+      <c r="A7" s="11"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-      <c r="B8" s="9" t="s">
+      <c r="A8" s="11"/>
+      <c r="B8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="17"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="11"/>
     </row>
     <row r="9" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="17"/>
+      <c r="A9" s="11"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="11"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-      <c r="F10" s="17"/>
+      <c r="A10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="A11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="17"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="17"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="18"/>
+      <c r="A13" s="12"/>
       <c r="B13" s="6"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="B14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" ht="13.5" x14ac:dyDescent="0.15">
-      <c r="B17" s="6"/>
+      <c r="F13" s="12"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="10"/>
+      <c r="B15" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="21"/>
+      <c r="D15" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="22"/>
+      <c r="F15" s="11"/>
+    </row>
+    <row r="16" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="10"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="F16" s="11"/>
+    </row>
+    <row r="17" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="10"/>
+      <c r="B17" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" s="7"/>
+      <c r="F17" s="11"/>
+    </row>
+    <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="24"/>
+      <c r="F18" s="11"/>
+    </row>
+    <row r="19" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="11"/>
+      <c r="B19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="11"/>
+    </row>
+    <row r="20" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="11"/>
+      <c r="B20" s="15"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="11"/>
+    </row>
+    <row r="21" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="11"/>
+      <c r="B21" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C21" s="20"/>
+      <c r="D21" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="11"/>
+    </row>
+    <row r="22" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="11"/>
+      <c r="B22" s="15"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="11"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="11"/>
+      <c r="F23" s="11"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A24" s="11"/>
+      <c r="F24" s="11"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="11"/>
+      <c r="B25" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="11"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="12"/>
+      <c r="B26" s="6"/>
+      <c r="F26" s="12"/>
+    </row>
+    <row r="42" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="13"/>
+    </row>
+    <row r="43" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="10"/>
+      <c r="B43" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="21"/>
+      <c r="D43" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="11"/>
+    </row>
+    <row r="44" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="10"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="F44" s="11"/>
+    </row>
+    <row r="45" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="10"/>
+      <c r="B45" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" s="7"/>
+      <c r="F45" s="11"/>
+    </row>
+    <row r="46" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="11"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D46" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E46" s="24"/>
+      <c r="F46" s="11"/>
+    </row>
+    <row r="47" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="11"/>
+      <c r="B47" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47" s="14"/>
+      <c r="D47" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="11"/>
+    </row>
+    <row r="48" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="11"/>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="25"/>
+      <c r="F48" s="11"/>
+    </row>
+    <row r="49" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="11"/>
+      <c r="B49" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C49" s="20"/>
+      <c r="D49" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="19"/>
+      <c r="F49" s="11"/>
+    </row>
+    <row r="50" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="11"/>
+      <c r="B50" s="15"/>
+      <c r="C50" s="15"/>
+      <c r="D50" s="15"/>
+      <c r="E50" s="25"/>
+      <c r="F50" s="11"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="F51" s="11"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A52" s="11"/>
+      <c r="F52" s="11"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" s="11"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A54" s="12"/>
+      <c r="B54" s="6"/>
+      <c r="F54" s="12"/>
+    </row>
+    <row r="55" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F55" s="13"/>
+    </row>
+    <row r="56" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="10"/>
+      <c r="B56" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="21"/>
+      <c r="D56" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="11"/>
+    </row>
+    <row r="57" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="10"/>
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="F57" s="11"/>
+    </row>
+    <row r="58" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="10"/>
+      <c r="B58" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C58" s="7"/>
+      <c r="F58" s="11"/>
+    </row>
+    <row r="59" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="11"/>
+      <c r="B59" s="4"/>
+      <c r="C59" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D59" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="24"/>
+      <c r="F59" s="11"/>
+    </row>
+    <row r="60" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="11"/>
+      <c r="B60" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C60" s="14"/>
+      <c r="D60" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="11"/>
+    </row>
+    <row r="61" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="11"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="15"/>
+      <c r="E61" s="25"/>
+      <c r="F61" s="11"/>
+    </row>
+    <row r="62" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="11"/>
+      <c r="B62" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C62" s="20"/>
+      <c r="D62" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E62" s="19"/>
+      <c r="F62" s="11"/>
+    </row>
+    <row r="63" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="11"/>
+      <c r="B63" s="15"/>
+      <c r="C63" s="15"/>
+      <c r="D63" s="15"/>
+      <c r="E63" s="25"/>
+      <c r="F63" s="11"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A64" s="11"/>
+      <c r="F64" s="11"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A65" s="11"/>
+      <c r="F65" s="11"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A66" s="11"/>
+      <c r="B66" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F66" s="11"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A67" s="12"/>
+      <c r="B67" s="6"/>
+      <c r="F67" s="12"/>
+    </row>
+    <row r="83" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="13"/>
+    </row>
+    <row r="84" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="10"/>
+      <c r="B84" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="21"/>
+      <c r="D84" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="22"/>
+      <c r="F84" s="11"/>
+    </row>
+    <row r="85" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="10"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="7"/>
+      <c r="F85" s="11"/>
+    </row>
+    <row r="86" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="10"/>
+      <c r="B86" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C86" s="7"/>
+      <c r="F86" s="11"/>
+    </row>
+    <row r="87" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="11"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D87" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E87" s="24"/>
+      <c r="F87" s="11"/>
+    </row>
+    <row r="88" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="11"/>
+      <c r="B88" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C88" s="14"/>
+      <c r="D88" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88" s="17"/>
+      <c r="F88" s="11"/>
+    </row>
+    <row r="89" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="11"/>
+      <c r="B89" s="15"/>
+      <c r="C89" s="15"/>
+      <c r="D89" s="15"/>
+      <c r="E89" s="25"/>
+      <c r="F89" s="11"/>
+    </row>
+    <row r="90" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="11"/>
+      <c r="B90" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C90" s="20"/>
+      <c r="D90" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90" s="19"/>
+      <c r="F90" s="11"/>
+    </row>
+    <row r="91" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="11"/>
+      <c r="B91" s="15"/>
+      <c r="C91" s="15"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="25"/>
+      <c r="F91" s="11"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A92" s="11"/>
+      <c r="F92" s="11"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A93" s="11"/>
+      <c r="F93" s="11"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A94" s="11"/>
+      <c r="B94" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" s="11"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A95" s="12"/>
+      <c r="B95" s="6"/>
+      <c r="F95" s="12"/>
+    </row>
+    <row r="96" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F96" s="13"/>
+    </row>
+    <row r="97" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="10"/>
+      <c r="B97" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="21"/>
+      <c r="D97" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="22"/>
+      <c r="F97" s="11"/>
+    </row>
+    <row r="98" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="10"/>
+      <c r="B98" s="7"/>
+      <c r="C98" s="7"/>
+      <c r="F98" s="11"/>
+    </row>
+    <row r="99" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="10"/>
+      <c r="B99" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="7"/>
+      <c r="F99" s="11"/>
+    </row>
+    <row r="100" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="11"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E100" s="24"/>
+      <c r="F100" s="11"/>
+    </row>
+    <row r="101" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="11"/>
+      <c r="B101" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101" s="14"/>
+      <c r="D101" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="17"/>
+      <c r="F101" s="11"/>
+    </row>
+    <row r="102" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="11"/>
+      <c r="B102" s="15"/>
+      <c r="C102" s="15"/>
+      <c r="D102" s="15"/>
+      <c r="E102" s="25"/>
+      <c r="F102" s="11"/>
+    </row>
+    <row r="103" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="11"/>
+      <c r="B103" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="20"/>
+      <c r="D103" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="19"/>
+      <c r="F103" s="11"/>
+    </row>
+    <row r="104" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="11"/>
+      <c r="B104" s="15"/>
+      <c r="C104" s="15"/>
+      <c r="D104" s="15"/>
+      <c r="E104" s="25"/>
+      <c r="F104" s="11"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A105" s="11"/>
+      <c r="F105" s="11"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A106" s="11"/>
+      <c r="F106" s="11"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A107" s="11"/>
+      <c r="B107" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F107" s="11"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A108" s="12"/>
+      <c r="B108" s="6"/>
+      <c r="F108" s="12"/>
+    </row>
+    <row r="124" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A124" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F124" s="13"/>
+    </row>
+    <row r="125" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A125" s="10"/>
+      <c r="B125" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="21"/>
+      <c r="D125" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="22"/>
+      <c r="F125" s="11"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A126" s="10"/>
+      <c r="B126" s="7"/>
+      <c r="C126" s="7"/>
+      <c r="F126" s="11"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A127" s="10"/>
+      <c r="B127" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" s="7"/>
+      <c r="F127" s="11"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A128" s="11"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D128" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E128" s="24"/>
+      <c r="F128" s="11"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A129" s="11"/>
+      <c r="B129" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="14"/>
+      <c r="D129" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="17"/>
+      <c r="F129" s="11"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A130" s="11"/>
+      <c r="B130" s="15"/>
+      <c r="C130" s="15"/>
+      <c r="D130" s="15"/>
+      <c r="E130" s="25"/>
+      <c r="F130" s="11"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A131" s="11"/>
+      <c r="B131" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C131" s="20"/>
+      <c r="D131" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="19"/>
+      <c r="F131" s="11"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A132" s="11"/>
+      <c r="B132" s="15"/>
+      <c r="C132" s="15"/>
+      <c r="D132" s="15"/>
+      <c r="E132" s="25"/>
+      <c r="F132" s="11"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A133" s="11"/>
+      <c r="F133" s="11"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A134" s="11"/>
+      <c r="F134" s="11"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A135" s="11"/>
+      <c r="B135" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F135" s="11"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A136" s="12"/>
+      <c r="B136" s="6"/>
+      <c r="F136" s="12"/>
+    </row>
+    <row r="137" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A137" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F137" s="13"/>
+    </row>
+    <row r="138" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A138" s="10"/>
+      <c r="B138" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C138" s="21"/>
+      <c r="D138" s="22" t="s">
+        <v>16</v>
+      </c>
+      <c r="E138" s="22"/>
+      <c r="F138" s="11"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A139" s="10"/>
+      <c r="B139" s="7"/>
+      <c r="C139" s="7"/>
+      <c r="F139" s="11"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A140" s="10"/>
+      <c r="B140" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C140" s="7"/>
+      <c r="F140" s="11"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A141" s="11"/>
+      <c r="B141" s="4"/>
+      <c r="C141" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D141" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E141" s="24"/>
+      <c r="F141" s="11"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A142" s="11"/>
+      <c r="B142" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142" s="14"/>
+      <c r="D142" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="17"/>
+      <c r="F142" s="11"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A143" s="11"/>
+      <c r="B143" s="15"/>
+      <c r="C143" s="15"/>
+      <c r="D143" s="15"/>
+      <c r="E143" s="25"/>
+      <c r="F143" s="11"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A144" s="11"/>
+      <c r="B144" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C144" s="20"/>
+      <c r="D144" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="19"/>
+      <c r="F144" s="11"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A145" s="11"/>
+      <c r="B145" s="15"/>
+      <c r="C145" s="15"/>
+      <c r="D145" s="15"/>
+      <c r="E145" s="25"/>
+      <c r="F145" s="11"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A146" s="11"/>
+      <c r="F146" s="11"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A147" s="11"/>
+      <c r="F147" s="11"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A148" s="11"/>
+      <c r="B148" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F148" s="11"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A149" s="12"/>
+      <c r="B149" s="6"/>
+      <c r="F149" s="12"/>
+    </row>
+    <row r="181" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A181" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F181" s="13"/>
+    </row>
+    <row r="182" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A182" s="10"/>
+      <c r="B182" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C182" s="21"/>
+      <c r="D182" s="22" t="s">
+        <v>17</v>
+      </c>
+      <c r="E182" s="22"/>
+      <c r="F182" s="11"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A183" s="10"/>
+      <c r="B183" s="7"/>
+      <c r="C183" s="7"/>
+      <c r="F183" s="11"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A184" s="10"/>
+      <c r="B184" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="7"/>
+      <c r="F184" s="11"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A185" s="11"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D185" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E185" s="24"/>
+      <c r="F185" s="11"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A186" s="11"/>
+      <c r="B186" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="14"/>
+      <c r="D186" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E186" s="17"/>
+      <c r="F186" s="11"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A187" s="11"/>
+      <c r="B187" s="15"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="15"/>
+      <c r="E187" s="25"/>
+      <c r="F187" s="11"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A188" s="11"/>
+      <c r="B188" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C188" s="20"/>
+      <c r="D188" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E188" s="19"/>
+      <c r="F188" s="11"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A189" s="11"/>
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="15"/>
+      <c r="E189" s="25"/>
+      <c r="F189" s="11"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A190" s="11"/>
+      <c r="F190" s="11"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A191" s="11"/>
+      <c r="F191" s="11"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A192" s="11"/>
+      <c r="B192" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F192" s="11"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A193" s="12"/>
+      <c r="B193" s="6"/>
+      <c r="F193" s="12"/>
+    </row>
+    <row r="194" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A194" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F194" s="13"/>
+    </row>
+    <row r="195" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A195" s="10"/>
+      <c r="B195" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C195" s="21"/>
+      <c r="D195" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E195" s="22"/>
+      <c r="F195" s="11"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A196" s="10"/>
+      <c r="B196" s="7"/>
+      <c r="C196" s="7"/>
+      <c r="F196" s="11"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A197" s="10"/>
+      <c r="B197" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="7"/>
+      <c r="F197" s="11"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A198" s="11"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D198" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E198" s="24"/>
+      <c r="F198" s="11"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A199" s="11"/>
+      <c r="B199" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="14"/>
+      <c r="D199" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E199" s="17"/>
+      <c r="F199" s="11"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A200" s="11"/>
+      <c r="B200" s="15"/>
+      <c r="C200" s="15"/>
+      <c r="D200" s="15"/>
+      <c r="E200" s="25"/>
+      <c r="F200" s="11"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A201" s="11"/>
+      <c r="B201" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C201" s="20"/>
+      <c r="D201" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E201" s="19"/>
+      <c r="F201" s="11"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A202" s="11"/>
+      <c r="B202" s="15"/>
+      <c r="C202" s="15"/>
+      <c r="D202" s="15"/>
+      <c r="E202" s="25"/>
+      <c r="F202" s="11"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A203" s="11"/>
+      <c r="F203" s="11"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A204" s="11"/>
+      <c r="F204" s="11"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A205" s="11"/>
+      <c r="B205" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F205" s="11"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A206" s="12"/>
+      <c r="B206" s="6"/>
+      <c r="F206" s="12"/>
+    </row>
+    <row r="238" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A238" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F238" s="13"/>
+    </row>
+    <row r="239" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A239" s="10"/>
+      <c r="B239" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C239" s="21"/>
+      <c r="D239" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="E239" s="26"/>
+      <c r="F239" s="11"/>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A240" s="10"/>
+      <c r="B240" s="7"/>
+      <c r="C240" s="7"/>
+      <c r="F240" s="11"/>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A241" s="10"/>
+      <c r="B241" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" s="7"/>
+      <c r="F241" s="11"/>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A242" s="11"/>
+      <c r="B242" s="4"/>
+      <c r="C242" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D242" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E242" s="24"/>
+      <c r="F242" s="11"/>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A243" s="11"/>
+      <c r="B243" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C243" s="14"/>
+      <c r="D243" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E243" s="17"/>
+      <c r="F243" s="11"/>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A244" s="11"/>
+      <c r="B244" s="15"/>
+      <c r="C244" s="15"/>
+      <c r="D244" s="15"/>
+      <c r="E244" s="25"/>
+      <c r="F244" s="11"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A245" s="11"/>
+      <c r="B245" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C245" s="20"/>
+      <c r="D245" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E245" s="19"/>
+      <c r="F245" s="11"/>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A246" s="11"/>
+      <c r="B246" s="15"/>
+      <c r="C246" s="15"/>
+      <c r="D246" s="15"/>
+      <c r="E246" s="25"/>
+      <c r="F246" s="11"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A247" s="11"/>
+      <c r="F247" s="11"/>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A248" s="11"/>
+      <c r="F248" s="11"/>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A249" s="11"/>
+      <c r="B249" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F249" s="11"/>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A250" s="12"/>
+      <c r="B250" s="6"/>
+      <c r="F250" s="12"/>
+    </row>
+    <row r="251" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A251" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F251" s="13"/>
+    </row>
+    <row r="252" spans="1:6" ht="21" x14ac:dyDescent="0.15">
+      <c r="A252" s="10"/>
+      <c r="B252" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="C252" s="21"/>
+      <c r="D252" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E252" s="22"/>
+      <c r="F252" s="11"/>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A253" s="10"/>
+      <c r="B253" s="7"/>
+      <c r="C253" s="7"/>
+      <c r="F253" s="11"/>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A254" s="10"/>
+      <c r="B254" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" s="7"/>
+      <c r="F254" s="11"/>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A255" s="11"/>
+      <c r="B255" s="4"/>
+      <c r="C255" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D255" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E255" s="24"/>
+      <c r="F255" s="11"/>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A256" s="11"/>
+      <c r="B256" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" s="14"/>
+      <c r="D256" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E256" s="17"/>
+      <c r="F256" s="11"/>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A257" s="11"/>
+      <c r="B257" s="15"/>
+      <c r="C257" s="15"/>
+      <c r="D257" s="15"/>
+      <c r="E257" s="25"/>
+      <c r="F257" s="11"/>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A258" s="11"/>
+      <c r="B258" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C258" s="20"/>
+      <c r="D258" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E258" s="19"/>
+      <c r="F258" s="11"/>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A259" s="11"/>
+      <c r="B259" s="15"/>
+      <c r="C259" s="15"/>
+      <c r="D259" s="15"/>
+      <c r="E259" s="25"/>
+      <c r="F259" s="11"/>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A260" s="11"/>
+      <c r="F260" s="11"/>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A261" s="11"/>
+      <c r="F261" s="11"/>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A262" s="11"/>
+      <c r="B262" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F262" s="11"/>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A263" s="12"/>
+      <c r="B263" s="6"/>
+      <c r="F263" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:B9"/>
+  <mergeCells count="132">
+    <mergeCell ref="B258:B259"/>
+    <mergeCell ref="C258:C259"/>
+    <mergeCell ref="D258:E258"/>
+    <mergeCell ref="D259:E259"/>
+    <mergeCell ref="D255:E255"/>
+    <mergeCell ref="B256:B257"/>
+    <mergeCell ref="C256:C257"/>
+    <mergeCell ref="D256:E256"/>
+    <mergeCell ref="D257:E257"/>
+    <mergeCell ref="B245:B246"/>
+    <mergeCell ref="C245:C246"/>
+    <mergeCell ref="D245:E245"/>
+    <mergeCell ref="D246:E246"/>
+    <mergeCell ref="B252:C252"/>
+    <mergeCell ref="D252:E252"/>
+    <mergeCell ref="D242:E242"/>
+    <mergeCell ref="B243:B244"/>
+    <mergeCell ref="C243:C244"/>
+    <mergeCell ref="D243:E243"/>
+    <mergeCell ref="D244:E244"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="D201:E201"/>
+    <mergeCell ref="D202:E202"/>
+    <mergeCell ref="B239:C239"/>
+    <mergeCell ref="D239:E239"/>
+    <mergeCell ref="D198:E198"/>
+    <mergeCell ref="B199:B200"/>
+    <mergeCell ref="C199:C200"/>
+    <mergeCell ref="D199:E199"/>
+    <mergeCell ref="D200:E200"/>
+    <mergeCell ref="B188:B189"/>
+    <mergeCell ref="C188:C189"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="B195:C195"/>
+    <mergeCell ref="D195:E195"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="B186:B187"/>
+    <mergeCell ref="C186:C187"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="D182:E182"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="D2:E2"/>
     <mergeCell ref="D5:E5"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:B9"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.70866141732283472" top="0.19685039370078741" bottom="0.31496062992125984" header="0.11811023622047245" footer="0.31496062992125984"/>

--- a/平成31年度/シースリーカップ/6.大会当日使用/c3cup 優秀選手賞・敢闘賞　選出用紙.xlsx
+++ b/平成31年度/シースリーカップ/6.大会当日使用/c3cup 優秀選手賞・敢闘賞　選出用紙.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wizusb\平成31年度\シースリーカップ\6.大会当日使用\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\wizusb\平成31年度\シースリーカップ\6.大会当日使用\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="優秀選手賞・敢闘賞　選出用紙" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="26">
   <si>
     <t>敢闘賞</t>
     <rPh sb="0" eb="3">
@@ -147,34 +147,54 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>半田JSCミニバスケットボール部</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>栃尾ウィザーズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>上川西ミニバスクラブ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ふりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>上組こだまキッズ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>ふりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ふりがな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>槻の森ユナイターズ</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>内野オールスターズ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>半田JSCミニバスケットボール部</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>栃尾ウィザーズ</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +249,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -321,17 +341,6 @@
       </top>
       <bottom style="hair">
         <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -354,32 +363,23 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
+      <bottom style="hair">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -394,7 +394,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,71 +410,62 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -780,9 +771,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F263"/>
+  <dimension ref="A1:F231"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F225" sqref="F225"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.15"/>
   <cols>
@@ -794,1363 +787,1276 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="13"/>
+      <c r="F1" s="11"/>
     </row>
     <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="10"/>
-      <c r="B2" s="21" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22" t="s">
+      <c r="C2" s="20"/>
+      <c r="D2" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="22"/>
-      <c r="F2" s="11"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="10"/>
+      <c r="A3" s="8"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="10"/>
+      <c r="A4" s="8"/>
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="F4" s="11"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="11"/>
+      <c r="A5" s="9"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="24"/>
-      <c r="F5" s="11"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="9"/>
     </row>
     <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="11"/>
-      <c r="B6" s="14" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="16" t="s">
+      <c r="C6" s="18"/>
+      <c r="D6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="11"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="9"/>
     </row>
     <row r="7" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="11"/>
+      <c r="A7" s="9"/>
       <c r="B7" s="15"/>
       <c r="C7" s="15"/>
       <c r="D7" s="15"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="11"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="9"/>
     </row>
     <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="11"/>
-      <c r="B8" s="20" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C8" s="20"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="11"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="9"/>
     </row>
     <row r="9" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="11"/>
+      <c r="A9" s="9"/>
       <c r="B9" s="15"/>
       <c r="C9" s="15"/>
       <c r="D9" s="15"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="11"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A10" s="11"/>
-      <c r="F10" s="11"/>
+      <c r="A10" s="9"/>
+      <c r="F10" s="9"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A11" s="11"/>
-      <c r="F11" s="11"/>
+      <c r="A11" s="9"/>
+      <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A12" s="11"/>
-      <c r="B12" s="6" t="s">
+      <c r="A12" s="9"/>
+      <c r="B12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="11"/>
+      <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A13" s="12"/>
-      <c r="B13" s="6"/>
-      <c r="F13" s="12"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="5"/>
+      <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="13"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="10"/>
-      <c r="B15" s="21" t="s">
+      <c r="A15" s="8"/>
+      <c r="B15" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="21"/>
-      <c r="D15" s="22" t="s">
+      <c r="C15" s="20"/>
+      <c r="D15" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="22"/>
-      <c r="F15" s="11"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="9"/>
     </row>
     <row r="16" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="10"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="F16" s="11"/>
+      <c r="A16" s="8"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="F16" s="9"/>
     </row>
     <row r="17" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="10"/>
+      <c r="A17" s="8"/>
       <c r="B17" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="7"/>
-      <c r="F17" s="11"/>
+      <c r="C17" s="6"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="11"/>
+      <c r="A18" s="9"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="23" t="s">
+      <c r="D18" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="24"/>
-      <c r="F18" s="11"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="9"/>
     </row>
     <row r="19" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="11"/>
-      <c r="B19" s="14" t="s">
+      <c r="A19" s="9"/>
+      <c r="B19" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="16" t="s">
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="11"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="9"/>
     </row>
     <row r="20" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="11"/>
+      <c r="A20" s="9"/>
       <c r="B20" s="15"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="11"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="9"/>
     </row>
     <row r="21" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="11"/>
-      <c r="B21" s="20" t="s">
+      <c r="A21" s="9"/>
+      <c r="B21" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C21" s="20"/>
-      <c r="D21" s="18" t="s">
+      <c r="C21" s="14"/>
+      <c r="D21" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="11"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="11"/>
+      <c r="A22" s="9"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="11"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="11"/>
-      <c r="F23" s="11"/>
+      <c r="A23" s="9"/>
+      <c r="F23" s="9"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="11"/>
-      <c r="F24" s="11"/>
+      <c r="A24" s="9"/>
+      <c r="F24" s="9"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="11"/>
-      <c r="B25" s="6" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="11"/>
+      <c r="F25" s="9"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="12"/>
-      <c r="B26" s="6"/>
-      <c r="F26" s="12"/>
+      <c r="A26" s="10"/>
+      <c r="B26" s="5"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="42" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F42" s="13"/>
+      <c r="F42" s="11"/>
     </row>
     <row r="43" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="10"/>
-      <c r="B43" s="21" t="s">
+      <c r="A43" s="8"/>
+      <c r="B43" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C43" s="21"/>
-      <c r="D43" s="22" t="s">
+      <c r="C43" s="20"/>
+      <c r="D43" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="E43" s="22"/>
-      <c r="F43" s="11"/>
+      <c r="E43" s="21"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="10"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="F44" s="11"/>
+      <c r="A44" s="8"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="10"/>
+      <c r="A45" s="8"/>
       <c r="B45" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="7"/>
-      <c r="F45" s="11"/>
+      <c r="C45" s="6"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="11"/>
+      <c r="A46" s="9"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="8" t="s">
+      <c r="C46" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D46" s="23" t="s">
+      <c r="D46" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="F46" s="11"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="11"/>
-      <c r="B47" s="14" t="s">
+      <c r="A47" s="9"/>
+      <c r="B47" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C47" s="14"/>
-      <c r="D47" s="16" t="s">
+      <c r="C47" s="18"/>
+      <c r="D47" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="17"/>
-      <c r="F47" s="11"/>
+      <c r="E47" s="22"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="11"/>
+      <c r="A48" s="9"/>
       <c r="B48" s="15"/>
       <c r="C48" s="15"/>
       <c r="D48" s="15"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="11"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="11"/>
-      <c r="B49" s="20" t="s">
+      <c r="A49" s="9"/>
+      <c r="B49" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="20"/>
-      <c r="D49" s="18" t="s">
+      <c r="C49" s="14"/>
+      <c r="D49" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E49" s="19"/>
-      <c r="F49" s="11"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="11"/>
+      <c r="A50" s="9"/>
       <c r="B50" s="15"/>
       <c r="C50" s="15"/>
       <c r="D50" s="15"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="11"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
-      <c r="F51" s="11"/>
+      <c r="A51" s="9"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
-      <c r="F52" s="11"/>
+      <c r="A52" s="9"/>
+      <c r="F52" s="9"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
-      <c r="B53" s="6" t="s">
+      <c r="A53" s="9"/>
+      <c r="B53" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F53" s="11"/>
+      <c r="F53" s="9"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A54" s="12"/>
-      <c r="B54" s="6"/>
-      <c r="F54" s="12"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="5"/>
+      <c r="F54" s="10"/>
     </row>
     <row r="55" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="9" t="s">
+      <c r="A55" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F55" s="13"/>
+      <c r="F55" s="11"/>
     </row>
     <row r="56" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="10"/>
-      <c r="B56" s="21" t="s">
+      <c r="A56" s="8"/>
+      <c r="B56" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="21"/>
-      <c r="D56" s="22" t="s">
+      <c r="C56" s="20"/>
+      <c r="D56" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E56" s="22"/>
-      <c r="F56" s="11"/>
+      <c r="E56" s="21"/>
+      <c r="F56" s="9"/>
     </row>
     <row r="57" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="10"/>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="F57" s="11"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="6"/>
+      <c r="C57" s="6"/>
+      <c r="F57" s="9"/>
     </row>
     <row r="58" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="10"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C58" s="7"/>
-      <c r="F58" s="11"/>
+      <c r="C58" s="6"/>
+      <c r="F58" s="9"/>
     </row>
     <row r="59" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="11"/>
+      <c r="A59" s="9"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D59" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E59" s="24"/>
-      <c r="F59" s="11"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="9"/>
     </row>
     <row r="60" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="11"/>
-      <c r="B60" s="14" t="s">
+      <c r="A60" s="9"/>
+      <c r="B60" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C60" s="14"/>
-      <c r="D60" s="16" t="s">
+      <c r="C60" s="18"/>
+      <c r="D60" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E60" s="17"/>
-      <c r="F60" s="11"/>
+      <c r="E60" s="22"/>
+      <c r="F60" s="9"/>
     </row>
     <row r="61" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="11"/>
+      <c r="A61" s="9"/>
       <c r="B61" s="15"/>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
-      <c r="E61" s="25"/>
-      <c r="F61" s="11"/>
+      <c r="E61" s="15"/>
+      <c r="F61" s="9"/>
     </row>
     <row r="62" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="11"/>
-      <c r="B62" s="20" t="s">
+      <c r="A62" s="9"/>
+      <c r="B62" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C62" s="20"/>
-      <c r="D62" s="18" t="s">
+      <c r="C62" s="14"/>
+      <c r="D62" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E62" s="19"/>
-      <c r="F62" s="11"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="9"/>
     </row>
     <row r="63" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="11"/>
+      <c r="A63" s="9"/>
       <c r="B63" s="15"/>
       <c r="C63" s="15"/>
       <c r="D63" s="15"/>
-      <c r="E63" s="25"/>
-      <c r="F63" s="11"/>
+      <c r="E63" s="15"/>
+      <c r="F63" s="9"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A64" s="11"/>
-      <c r="F64" s="11"/>
+      <c r="A64" s="9"/>
+      <c r="F64" s="9"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A65" s="11"/>
-      <c r="F65" s="11"/>
+      <c r="A65" s="9"/>
+      <c r="F65" s="9"/>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A66" s="11"/>
-      <c r="B66" s="6" t="s">
+      <c r="A66" s="9"/>
+      <c r="B66" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F66" s="11"/>
+      <c r="F66" s="9"/>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A67" s="12"/>
-      <c r="B67" s="6"/>
-      <c r="F67" s="12"/>
+      <c r="A67" s="10"/>
+      <c r="B67" s="5"/>
+      <c r="F67" s="10"/>
     </row>
     <row r="83" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="9" t="s">
+      <c r="A83" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="13"/>
+      <c r="F83" s="11"/>
     </row>
     <row r="84" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="10"/>
-      <c r="B84" s="21" t="s">
+      <c r="A84" s="8"/>
+      <c r="B84" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C84" s="21"/>
-      <c r="D84" s="22" t="s">
+      <c r="C84" s="20"/>
+      <c r="D84" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="11"/>
+      <c r="E84" s="21"/>
+      <c r="F84" s="9"/>
     </row>
     <row r="85" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="10"/>
-      <c r="B85" s="7"/>
-      <c r="C85" s="7"/>
-      <c r="F85" s="11"/>
+      <c r="A85" s="8"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
+      <c r="F85" s="9"/>
     </row>
     <row r="86" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="10"/>
+      <c r="A86" s="8"/>
       <c r="B86" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C86" s="7"/>
-      <c r="F86" s="11"/>
+      <c r="C86" s="6"/>
+      <c r="F86" s="9"/>
     </row>
     <row r="87" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="11"/>
+      <c r="A87" s="9"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="8" t="s">
+      <c r="C87" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D87" s="23" t="s">
+      <c r="D87" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E87" s="24"/>
-      <c r="F87" s="11"/>
+      <c r="E87" s="17"/>
+      <c r="F87" s="9"/>
     </row>
     <row r="88" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="11"/>
-      <c r="B88" s="14" t="s">
+      <c r="A88" s="9"/>
+      <c r="B88" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C88" s="14"/>
-      <c r="D88" s="16" t="s">
+      <c r="C88" s="18"/>
+      <c r="D88" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="11"/>
+      <c r="E88" s="22"/>
+      <c r="F88" s="9"/>
     </row>
     <row r="89" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="11"/>
+      <c r="A89" s="9"/>
       <c r="B89" s="15"/>
       <c r="C89" s="15"/>
       <c r="D89" s="15"/>
-      <c r="E89" s="25"/>
-      <c r="F89" s="11"/>
+      <c r="E89" s="15"/>
+      <c r="F89" s="9"/>
     </row>
     <row r="90" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="11"/>
-      <c r="B90" s="20" t="s">
+      <c r="A90" s="9"/>
+      <c r="B90" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C90" s="20"/>
-      <c r="D90" s="18" t="s">
+      <c r="C90" s="14"/>
+      <c r="D90" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E90" s="19"/>
-      <c r="F90" s="11"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="9"/>
     </row>
     <row r="91" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="11"/>
+      <c r="A91" s="9"/>
       <c r="B91" s="15"/>
       <c r="C91" s="15"/>
       <c r="D91" s="15"/>
-      <c r="E91" s="25"/>
-      <c r="F91" s="11"/>
+      <c r="E91" s="15"/>
+      <c r="F91" s="9"/>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A92" s="11"/>
-      <c r="F92" s="11"/>
+      <c r="A92" s="9"/>
+      <c r="F92" s="9"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A93" s="11"/>
-      <c r="F93" s="11"/>
+      <c r="A93" s="9"/>
+      <c r="F93" s="9"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A94" s="11"/>
-      <c r="B94" s="6" t="s">
+      <c r="A94" s="9"/>
+      <c r="B94" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F94" s="11"/>
+      <c r="F94" s="9"/>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A95" s="12"/>
-      <c r="B95" s="6"/>
-      <c r="F95" s="12"/>
+      <c r="A95" s="10"/>
+      <c r="B95" s="5"/>
+      <c r="F95" s="10"/>
     </row>
     <row r="96" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="9" t="s">
+      <c r="A96" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F96" s="13"/>
+      <c r="F96" s="11"/>
     </row>
     <row r="97" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="10"/>
-      <c r="B97" s="21" t="s">
+      <c r="A97" s="8"/>
+      <c r="B97" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="21"/>
-      <c r="D97" s="22" t="s">
+      <c r="C97" s="20"/>
+      <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E97" s="22"/>
-      <c r="F97" s="11"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="9"/>
     </row>
     <row r="98" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="10"/>
-      <c r="B98" s="7"/>
-      <c r="C98" s="7"/>
-      <c r="F98" s="11"/>
+      <c r="A98" s="8"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="F98" s="9"/>
     </row>
     <row r="99" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="10"/>
+      <c r="A99" s="8"/>
       <c r="B99" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="7"/>
-      <c r="F99" s="11"/>
+      <c r="C99" s="6"/>
+      <c r="F99" s="9"/>
     </row>
     <row r="100" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="11"/>
+      <c r="A100" s="9"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="8" t="s">
+      <c r="C100" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D100" s="23" t="s">
+      <c r="D100" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E100" s="24"/>
-      <c r="F100" s="11"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="9"/>
     </row>
     <row r="101" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="11"/>
-      <c r="B101" s="14" t="s">
+      <c r="A101" s="9"/>
+      <c r="B101" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="14"/>
-      <c r="D101" s="16" t="s">
+      <c r="C101" s="18"/>
+      <c r="D101" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E101" s="17"/>
-      <c r="F101" s="11"/>
+      <c r="E101" s="22"/>
+      <c r="F101" s="9"/>
     </row>
     <row r="102" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="11"/>
+      <c r="A102" s="9"/>
       <c r="B102" s="15"/>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
-      <c r="E102" s="25"/>
-      <c r="F102" s="11"/>
+      <c r="E102" s="15"/>
+      <c r="F102" s="9"/>
     </row>
     <row r="103" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="11"/>
-      <c r="B103" s="20" t="s">
+      <c r="A103" s="9"/>
+      <c r="B103" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C103" s="20"/>
-      <c r="D103" s="18" t="s">
+      <c r="C103" s="14"/>
+      <c r="D103" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="E103" s="19"/>
-      <c r="F103" s="11"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="9"/>
     </row>
     <row r="104" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="11"/>
+      <c r="A104" s="9"/>
       <c r="B104" s="15"/>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
-      <c r="E104" s="25"/>
-      <c r="F104" s="11"/>
+      <c r="E104" s="15"/>
+      <c r="F104" s="9"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A105" s="11"/>
-      <c r="F105" s="11"/>
+      <c r="A105" s="9"/>
+      <c r="F105" s="9"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A106" s="11"/>
-      <c r="F106" s="11"/>
+      <c r="A106" s="9"/>
+      <c r="F106" s="9"/>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A107" s="11"/>
-      <c r="B107" s="6" t="s">
+      <c r="A107" s="9"/>
+      <c r="B107" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F107" s="11"/>
+      <c r="F107" s="9"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A108" s="12"/>
-      <c r="B108" s="6"/>
-      <c r="F108" s="12"/>
-    </row>
-    <row r="124" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A124" s="9" t="s">
+      <c r="A108" s="10"/>
+      <c r="B108" s="5"/>
+      <c r="F108" s="10"/>
+    </row>
+    <row r="124" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A124" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F124" s="13"/>
-    </row>
-    <row r="125" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A125" s="10"/>
-      <c r="B125" s="21" t="s">
+      <c r="F124" s="11"/>
+    </row>
+    <row r="125" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A125" s="8"/>
+      <c r="B125" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C125" s="21"/>
-      <c r="D125" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="E125" s="22"/>
-      <c r="F125" s="11"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126" s="10"/>
-      <c r="B126" s="7"/>
-      <c r="C126" s="7"/>
-      <c r="F126" s="11"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" s="10"/>
+      <c r="C125" s="20"/>
+      <c r="D125" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E125" s="21"/>
+      <c r="F125" s="9"/>
+    </row>
+    <row r="126" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A126" s="8"/>
+      <c r="B126" s="12"/>
+      <c r="C126" s="12"/>
+      <c r="F126" s="9"/>
+    </row>
+    <row r="127" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A127" s="8"/>
       <c r="B127" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C127" s="7"/>
-      <c r="F127" s="11"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A128" s="11"/>
+      <c r="C127" s="12"/>
+      <c r="F127" s="9"/>
+    </row>
+    <row r="128" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A128" s="9"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="8" t="s">
+      <c r="C128" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D128" s="23" t="s">
+      <c r="D128" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E128" s="24"/>
-      <c r="F128" s="11"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A129" s="11"/>
-      <c r="B129" s="14" t="s">
+      <c r="E128" s="17"/>
+      <c r="F128" s="9"/>
+    </row>
+    <row r="129" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A129" s="9"/>
+      <c r="B129" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C129" s="14"/>
-      <c r="D129" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E129" s="17"/>
-      <c r="F129" s="11"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A130" s="11"/>
+      <c r="C129" s="18"/>
+      <c r="D129" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E129" s="22"/>
+      <c r="F129" s="9"/>
+    </row>
+    <row r="130" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A130" s="9"/>
       <c r="B130" s="15"/>
       <c r="C130" s="15"/>
       <c r="D130" s="15"/>
-      <c r="E130" s="25"/>
-      <c r="F130" s="11"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A131" s="11"/>
-      <c r="B131" s="20" t="s">
+      <c r="E130" s="15"/>
+      <c r="F130" s="9"/>
+    </row>
+    <row r="131" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A131" s="9"/>
+      <c r="B131" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C131" s="20"/>
-      <c r="D131" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E131" s="19"/>
-      <c r="F131" s="11"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A132" s="11"/>
+      <c r="C131" s="14"/>
+      <c r="D131" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E131" s="23"/>
+      <c r="F131" s="9"/>
+    </row>
+    <row r="132" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A132" s="9"/>
       <c r="B132" s="15"/>
       <c r="C132" s="15"/>
       <c r="D132" s="15"/>
-      <c r="E132" s="25"/>
-      <c r="F132" s="11"/>
+      <c r="E132" s="15"/>
+      <c r="F132" s="9"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A133" s="11"/>
-      <c r="F133" s="11"/>
+      <c r="A133" s="9"/>
+      <c r="F133" s="9"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A134" s="11"/>
-      <c r="F134" s="11"/>
+      <c r="A134" s="9"/>
+      <c r="F134" s="9"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A135" s="11"/>
-      <c r="B135" s="6" t="s">
+      <c r="A135" s="9"/>
+      <c r="B135" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F135" s="11"/>
+      <c r="F135" s="9"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A136" s="12"/>
-      <c r="B136" s="6"/>
-      <c r="F136" s="12"/>
-    </row>
-    <row r="137" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A137" s="9" t="s">
+      <c r="A136" s="10"/>
+      <c r="B136" s="5"/>
+      <c r="F136" s="10"/>
+    </row>
+    <row r="137" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A137" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F137" s="13"/>
-    </row>
-    <row r="138" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A138" s="10"/>
-      <c r="B138" s="21" t="s">
+      <c r="F137" s="11"/>
+    </row>
+    <row r="138" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A138" s="8"/>
+      <c r="B138" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="21"/>
-      <c r="D138" s="22" t="s">
-        <v>16</v>
-      </c>
-      <c r="E138" s="22"/>
-      <c r="F138" s="11"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A139" s="10"/>
-      <c r="B139" s="7"/>
-      <c r="C139" s="7"/>
-      <c r="F139" s="11"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A140" s="10"/>
+      <c r="C138" s="20"/>
+      <c r="D138" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E138" s="21"/>
+      <c r="F138" s="9"/>
+    </row>
+    <row r="139" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A139" s="8"/>
+      <c r="B139" s="12"/>
+      <c r="C139" s="12"/>
+      <c r="F139" s="9"/>
+    </row>
+    <row r="140" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A140" s="8"/>
       <c r="B140" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C140" s="7"/>
-      <c r="F140" s="11"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A141" s="11"/>
+      <c r="C140" s="12"/>
+      <c r="F140" s="9"/>
+    </row>
+    <row r="141" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A141" s="9"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="8" t="s">
+      <c r="C141" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D141" s="23" t="s">
+      <c r="D141" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E141" s="24"/>
-      <c r="F141" s="11"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A142" s="11"/>
-      <c r="B142" s="14" t="s">
+      <c r="E141" s="17"/>
+      <c r="F141" s="9"/>
+    </row>
+    <row r="142" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A142" s="9"/>
+      <c r="B142" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C142" s="14"/>
-      <c r="D142" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E142" s="17"/>
-      <c r="F142" s="11"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A143" s="11"/>
+      <c r="C142" s="18"/>
+      <c r="D142" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" s="22"/>
+      <c r="F142" s="9"/>
+    </row>
+    <row r="143" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A143" s="9"/>
       <c r="B143" s="15"/>
       <c r="C143" s="15"/>
       <c r="D143" s="15"/>
-      <c r="E143" s="25"/>
-      <c r="F143" s="11"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A144" s="11"/>
-      <c r="B144" s="20" t="s">
+      <c r="E143" s="15"/>
+      <c r="F143" s="9"/>
+    </row>
+    <row r="144" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A144" s="9"/>
+      <c r="B144" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C144" s="20"/>
-      <c r="D144" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E144" s="19"/>
-      <c r="F144" s="11"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A145" s="11"/>
+      <c r="C144" s="14"/>
+      <c r="D144" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E144" s="23"/>
+      <c r="F144" s="9"/>
+    </row>
+    <row r="145" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A145" s="9"/>
       <c r="B145" s="15"/>
       <c r="C145" s="15"/>
       <c r="D145" s="15"/>
-      <c r="E145" s="25"/>
-      <c r="F145" s="11"/>
+      <c r="E145" s="15"/>
+      <c r="F145" s="9"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A146" s="11"/>
-      <c r="F146" s="11"/>
+      <c r="A146" s="9"/>
+      <c r="F146" s="9"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A147" s="11"/>
-      <c r="F147" s="11"/>
+      <c r="A147" s="9"/>
+      <c r="F147" s="9"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A148" s="11"/>
-      <c r="B148" s="6" t="s">
+      <c r="A148" s="9"/>
+      <c r="B148" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F148" s="11"/>
+      <c r="F148" s="9"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A149" s="12"/>
-      <c r="B149" s="6"/>
-      <c r="F149" s="12"/>
-    </row>
-    <row r="181" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A181" s="9" t="s">
+      <c r="A149" s="10"/>
+      <c r="B149" s="5"/>
+      <c r="F149" s="10"/>
+    </row>
+    <row r="165" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A165" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F181" s="13"/>
-    </row>
-    <row r="182" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A182" s="10"/>
-      <c r="B182" s="21" t="s">
+      <c r="F165" s="11"/>
+    </row>
+    <row r="166" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A166" s="8"/>
+      <c r="B166" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C182" s="21"/>
-      <c r="D182" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="E182" s="22"/>
-      <c r="F182" s="11"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A183" s="10"/>
-      <c r="B183" s="7"/>
-      <c r="C183" s="7"/>
-      <c r="F183" s="11"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A184" s="10"/>
-      <c r="B184" s="3" t="s">
+      <c r="C166" s="20"/>
+      <c r="D166" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E166" s="21"/>
+      <c r="F166" s="9"/>
+    </row>
+    <row r="167" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A167" s="8"/>
+      <c r="B167" s="12"/>
+      <c r="C167" s="12"/>
+      <c r="F167" s="9"/>
+    </row>
+    <row r="168" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A168" s="8"/>
+      <c r="B168" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C184" s="7"/>
-      <c r="F184" s="11"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A185" s="11"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="8" t="s">
+      <c r="C168" s="12"/>
+      <c r="F168" s="9"/>
+    </row>
+    <row r="169" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A169" s="9"/>
+      <c r="B169" s="4"/>
+      <c r="C169" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D185" s="23" t="s">
+      <c r="D169" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E185" s="24"/>
-      <c r="F185" s="11"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A186" s="11"/>
-      <c r="B186" s="14" t="s">
+      <c r="E169" s="17"/>
+      <c r="F169" s="9"/>
+    </row>
+    <row r="170" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A170" s="9"/>
+      <c r="B170" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C186" s="14"/>
-      <c r="D186" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E186" s="17"/>
-      <c r="F186" s="11"/>
+      <c r="C170" s="18"/>
+      <c r="D170" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E170" s="22"/>
+      <c r="F170" s="9"/>
+    </row>
+    <row r="171" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A171" s="9"/>
+      <c r="B171" s="15"/>
+      <c r="C171" s="15"/>
+      <c r="D171" s="15"/>
+      <c r="E171" s="15"/>
+      <c r="F171" s="9"/>
+    </row>
+    <row r="172" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A172" s="9"/>
+      <c r="B172" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C172" s="14"/>
+      <c r="D172" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E172" s="23"/>
+      <c r="F172" s="9"/>
+    </row>
+    <row r="173" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A173" s="9"/>
+      <c r="B173" s="15"/>
+      <c r="C173" s="15"/>
+      <c r="D173" s="15"/>
+      <c r="E173" s="15"/>
+      <c r="F173" s="9"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A174" s="9"/>
+      <c r="F174" s="9"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A175" s="9"/>
+      <c r="F175" s="9"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A176" s="9"/>
+      <c r="B176" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F176" s="9"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A177" s="10"/>
+      <c r="B177" s="5"/>
+      <c r="F177" s="10"/>
+    </row>
+    <row r="178" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A178" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F178" s="11"/>
+    </row>
+    <row r="179" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A179" s="8"/>
+      <c r="B179" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C179" s="20"/>
+      <c r="D179" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E179" s="21"/>
+      <c r="F179" s="9"/>
+    </row>
+    <row r="180" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A180" s="8"/>
+      <c r="B180" s="12"/>
+      <c r="C180" s="12"/>
+      <c r="F180" s="9"/>
+    </row>
+    <row r="181" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A181" s="8"/>
+      <c r="B181" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="12"/>
+      <c r="F181" s="9"/>
+    </row>
+    <row r="182" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A182" s="9"/>
+      <c r="B182" s="4"/>
+      <c r="C182" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D182" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E182" s="17"/>
+      <c r="F182" s="9"/>
+    </row>
+    <row r="183" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A183" s="9"/>
+      <c r="B183" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="18"/>
+      <c r="D183" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E183" s="22"/>
+      <c r="F183" s="9"/>
+    </row>
+    <row r="184" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A184" s="9"/>
+      <c r="B184" s="15"/>
+      <c r="C184" s="15"/>
+      <c r="D184" s="15"/>
+      <c r="E184" s="15"/>
+      <c r="F184" s="9"/>
+    </row>
+    <row r="185" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A185" s="9"/>
+      <c r="B185" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C185" s="14"/>
+      <c r="D185" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="E185" s="23"/>
+      <c r="F185" s="9"/>
+    </row>
+    <row r="186" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A186" s="9"/>
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="15"/>
+      <c r="E186" s="15"/>
+      <c r="F186" s="9"/>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A187" s="11"/>
-      <c r="B187" s="15"/>
-      <c r="C187" s="15"/>
-      <c r="D187" s="15"/>
-      <c r="E187" s="25"/>
-      <c r="F187" s="11"/>
+      <c r="A187" s="9"/>
+      <c r="F187" s="9"/>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A188" s="11"/>
-      <c r="B188" s="20" t="s">
+      <c r="A188" s="9"/>
+      <c r="F188" s="9"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A189" s="9"/>
+      <c r="B189" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F189" s="9"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A190" s="10"/>
+      <c r="B190" s="5"/>
+      <c r="F190" s="10"/>
+    </row>
+    <row r="206" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A206" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="11"/>
+    </row>
+    <row r="207" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A207" s="8"/>
+      <c r="B207" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="C207" s="20"/>
+      <c r="D207" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E207" s="21"/>
+      <c r="F207" s="9"/>
+    </row>
+    <row r="208" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A208" s="8"/>
+      <c r="B208" s="12"/>
+      <c r="C208" s="12"/>
+      <c r="F208" s="9"/>
+    </row>
+    <row r="209" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A209" s="8"/>
+      <c r="B209" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="12"/>
+      <c r="F209" s="9"/>
+    </row>
+    <row r="210" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A210" s="9"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D210" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E210" s="17"/>
+      <c r="F210" s="9"/>
+    </row>
+    <row r="211" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A211" s="9"/>
+      <c r="B211" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="18"/>
+      <c r="D211" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E211" s="22"/>
+      <c r="F211" s="9"/>
+    </row>
+    <row r="212" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A212" s="9"/>
+      <c r="B212" s="15"/>
+      <c r="C212" s="15"/>
+      <c r="D212" s="15"/>
+      <c r="E212" s="15"/>
+      <c r="F212" s="9"/>
+    </row>
+    <row r="213" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A213" s="9"/>
+      <c r="B213" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C188" s="20"/>
-      <c r="D188" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E188" s="19"/>
-      <c r="F188" s="11"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A189" s="11"/>
-      <c r="B189" s="15"/>
-      <c r="C189" s="15"/>
-      <c r="D189" s="15"/>
-      <c r="E189" s="25"/>
-      <c r="F189" s="11"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A190" s="11"/>
-      <c r="F190" s="11"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A191" s="11"/>
-      <c r="F191" s="11"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A192" s="11"/>
-      <c r="B192" s="6" t="s">
+      <c r="C213" s="14"/>
+      <c r="D213" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E213" s="23"/>
+      <c r="F213" s="9"/>
+    </row>
+    <row r="214" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A214" s="9"/>
+      <c r="B214" s="15"/>
+      <c r="C214" s="15"/>
+      <c r="D214" s="15"/>
+      <c r="E214" s="15"/>
+      <c r="F214" s="9"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A215" s="9"/>
+      <c r="F215" s="9"/>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A216" s="9"/>
+      <c r="F216" s="9"/>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A217" s="9"/>
+      <c r="B217" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F192" s="11"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A193" s="12"/>
-      <c r="B193" s="6"/>
-      <c r="F193" s="12"/>
-    </row>
-    <row r="194" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A194" s="9" t="s">
+      <c r="F217" s="9"/>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A218" s="10"/>
+      <c r="B218" s="5"/>
+      <c r="F218" s="10"/>
+    </row>
+    <row r="219" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A219" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F194" s="13"/>
-    </row>
-    <row r="195" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A195" s="10"/>
-      <c r="B195" s="21" t="s">
+      <c r="F219" s="11"/>
+    </row>
+    <row r="220" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A220" s="8"/>
+      <c r="B220" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C195" s="21"/>
-      <c r="D195" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="E195" s="22"/>
-      <c r="F195" s="11"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A196" s="10"/>
-      <c r="B196" s="7"/>
-      <c r="C196" s="7"/>
-      <c r="F196" s="11"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A197" s="10"/>
-      <c r="B197" s="3" t="s">
+      <c r="C220" s="20"/>
+      <c r="D220" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E220" s="21"/>
+      <c r="F220" s="9"/>
+    </row>
+    <row r="221" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A221" s="8"/>
+      <c r="B221" s="12"/>
+      <c r="C221" s="12"/>
+      <c r="F221" s="9"/>
+    </row>
+    <row r="222" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A222" s="8"/>
+      <c r="B222" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C197" s="7"/>
-      <c r="F197" s="11"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A198" s="11"/>
-      <c r="B198" s="4"/>
-      <c r="C198" s="8" t="s">
+      <c r="C222" s="12"/>
+      <c r="F222" s="9"/>
+    </row>
+    <row r="223" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A223" s="9"/>
+      <c r="B223" s="4"/>
+      <c r="C223" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D198" s="23" t="s">
+      <c r="D223" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E198" s="24"/>
-      <c r="F198" s="11"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A199" s="11"/>
-      <c r="B199" s="14" t="s">
+      <c r="E223" s="17"/>
+      <c r="F223" s="9"/>
+    </row>
+    <row r="224" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A224" s="9"/>
+      <c r="B224" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C199" s="14"/>
-      <c r="D199" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E199" s="17"/>
-      <c r="F199" s="11"/>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A200" s="11"/>
-      <c r="B200" s="15"/>
-      <c r="C200" s="15"/>
-      <c r="D200" s="15"/>
-      <c r="E200" s="25"/>
-      <c r="F200" s="11"/>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A201" s="11"/>
-      <c r="B201" s="20" t="s">
+      <c r="C224" s="18"/>
+      <c r="D224" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E224" s="22"/>
+      <c r="F224" s="9"/>
+    </row>
+    <row r="225" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A225" s="9"/>
+      <c r="B225" s="15"/>
+      <c r="C225" s="15"/>
+      <c r="D225" s="15"/>
+      <c r="E225" s="15"/>
+      <c r="F225" s="9"/>
+    </row>
+    <row r="226" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A226" s="9"/>
+      <c r="B226" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C201" s="20"/>
-      <c r="D201" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E201" s="19"/>
-      <c r="F201" s="11"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A202" s="11"/>
-      <c r="B202" s="15"/>
-      <c r="C202" s="15"/>
-      <c r="D202" s="15"/>
-      <c r="E202" s="25"/>
-      <c r="F202" s="11"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A203" s="11"/>
-      <c r="F203" s="11"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A204" s="11"/>
-      <c r="F204" s="11"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A205" s="11"/>
-      <c r="B205" s="6" t="s">
+      <c r="C226" s="14"/>
+      <c r="D226" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E226" s="23"/>
+      <c r="F226" s="9"/>
+    </row>
+    <row r="227" spans="1:6" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A227" s="9"/>
+      <c r="B227" s="15"/>
+      <c r="C227" s="15"/>
+      <c r="D227" s="15"/>
+      <c r="E227" s="15"/>
+      <c r="F227" s="9"/>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A228" s="9"/>
+      <c r="F228" s="9"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A229" s="9"/>
+      <c r="F229" s="9"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A230" s="9"/>
+      <c r="B230" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F205" s="11"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A206" s="12"/>
-      <c r="B206" s="6"/>
-      <c r="F206" s="12"/>
-    </row>
-    <row r="238" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A238" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F238" s="13"/>
-    </row>
-    <row r="239" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A239" s="10"/>
-      <c r="B239" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C239" s="21"/>
-      <c r="D239" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E239" s="26"/>
-      <c r="F239" s="11"/>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A240" s="10"/>
-      <c r="B240" s="7"/>
-      <c r="C240" s="7"/>
-      <c r="F240" s="11"/>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A241" s="10"/>
-      <c r="B241" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C241" s="7"/>
-      <c r="F241" s="11"/>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A242" s="11"/>
-      <c r="B242" s="4"/>
-      <c r="C242" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D242" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E242" s="24"/>
-      <c r="F242" s="11"/>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A243" s="11"/>
-      <c r="B243" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C243" s="14"/>
-      <c r="D243" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E243" s="17"/>
-      <c r="F243" s="11"/>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A244" s="11"/>
-      <c r="B244" s="15"/>
-      <c r="C244" s="15"/>
-      <c r="D244" s="15"/>
-      <c r="E244" s="25"/>
-      <c r="F244" s="11"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A245" s="11"/>
-      <c r="B245" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C245" s="20"/>
-      <c r="D245" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E245" s="19"/>
-      <c r="F245" s="11"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A246" s="11"/>
-      <c r="B246" s="15"/>
-      <c r="C246" s="15"/>
-      <c r="D246" s="15"/>
-      <c r="E246" s="25"/>
-      <c r="F246" s="11"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A247" s="11"/>
-      <c r="F247" s="11"/>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A248" s="11"/>
-      <c r="F248" s="11"/>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A249" s="11"/>
-      <c r="B249" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F249" s="11"/>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A250" s="12"/>
-      <c r="B250" s="6"/>
-      <c r="F250" s="12"/>
-    </row>
-    <row r="251" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A251" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="F251" s="13"/>
-    </row>
-    <row r="252" spans="1:6" ht="21" x14ac:dyDescent="0.15">
-      <c r="A252" s="10"/>
-      <c r="B252" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C252" s="21"/>
-      <c r="D252" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E252" s="22"/>
-      <c r="F252" s="11"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A253" s="10"/>
-      <c r="B253" s="7"/>
-      <c r="C253" s="7"/>
-      <c r="F253" s="11"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A254" s="10"/>
-      <c r="B254" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C254" s="7"/>
-      <c r="F254" s="11"/>
-    </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A255" s="11"/>
-      <c r="B255" s="4"/>
-      <c r="C255" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="D255" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="E255" s="24"/>
-      <c r="F255" s="11"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A256" s="11"/>
-      <c r="B256" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C256" s="14"/>
-      <c r="D256" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="E256" s="17"/>
-      <c r="F256" s="11"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A257" s="11"/>
-      <c r="B257" s="15"/>
-      <c r="C257" s="15"/>
-      <c r="D257" s="15"/>
-      <c r="E257" s="25"/>
-      <c r="F257" s="11"/>
-    </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A258" s="11"/>
-      <c r="B258" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C258" s="20"/>
-      <c r="D258" s="18" t="s">
-        <v>6</v>
-      </c>
-      <c r="E258" s="19"/>
-      <c r="F258" s="11"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A259" s="11"/>
-      <c r="B259" s="15"/>
-      <c r="C259" s="15"/>
-      <c r="D259" s="15"/>
-      <c r="E259" s="25"/>
-      <c r="F259" s="11"/>
-    </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A260" s="11"/>
-      <c r="F260" s="11"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A261" s="11"/>
-      <c r="F261" s="11"/>
-    </row>
-    <row r="262" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A262" s="11"/>
-      <c r="B262" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F262" s="11"/>
-    </row>
-    <row r="263" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A263" s="12"/>
-      <c r="B263" s="6"/>
-      <c r="F263" s="12"/>
+      <c r="F230" s="9"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A231" s="10"/>
+      <c r="B231" s="5"/>
+      <c r="F231" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="132">
-    <mergeCell ref="B258:B259"/>
-    <mergeCell ref="C258:C259"/>
-    <mergeCell ref="D258:E258"/>
-    <mergeCell ref="D259:E259"/>
-    <mergeCell ref="D255:E255"/>
-    <mergeCell ref="B256:B257"/>
-    <mergeCell ref="C256:C257"/>
-    <mergeCell ref="D256:E256"/>
-    <mergeCell ref="D257:E257"/>
-    <mergeCell ref="B245:B246"/>
-    <mergeCell ref="C245:C246"/>
-    <mergeCell ref="D245:E245"/>
-    <mergeCell ref="D246:E246"/>
-    <mergeCell ref="B252:C252"/>
-    <mergeCell ref="D252:E252"/>
-    <mergeCell ref="D242:E242"/>
-    <mergeCell ref="B243:B244"/>
-    <mergeCell ref="C243:C244"/>
-    <mergeCell ref="D243:E243"/>
-    <mergeCell ref="D244:E244"/>
-    <mergeCell ref="B201:B202"/>
-    <mergeCell ref="C201:C202"/>
-    <mergeCell ref="D201:E201"/>
-    <mergeCell ref="D202:E202"/>
-    <mergeCell ref="B239:C239"/>
-    <mergeCell ref="D239:E239"/>
-    <mergeCell ref="D198:E198"/>
-    <mergeCell ref="B199:B200"/>
-    <mergeCell ref="C199:C200"/>
-    <mergeCell ref="D199:E199"/>
-    <mergeCell ref="D200:E200"/>
-    <mergeCell ref="B188:B189"/>
-    <mergeCell ref="C188:C189"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="B195:C195"/>
-    <mergeCell ref="D195:E195"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="B186:B187"/>
-    <mergeCell ref="C186:C187"/>
-    <mergeCell ref="D186:E186"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="B144:B145"/>
-    <mergeCell ref="C144:C145"/>
-    <mergeCell ref="D144:E144"/>
-    <mergeCell ref="D145:E145"/>
-    <mergeCell ref="B182:C182"/>
+    <mergeCell ref="D169:E169"/>
+    <mergeCell ref="B170:B171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="B172:B173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="B179:C179"/>
+    <mergeCell ref="D179:E179"/>
     <mergeCell ref="D182:E182"/>
-    <mergeCell ref="D141:E141"/>
-    <mergeCell ref="B142:B143"/>
-    <mergeCell ref="C142:C143"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="D132:E132"/>
-    <mergeCell ref="B138:C138"/>
-    <mergeCell ref="D138:E138"/>
-    <mergeCell ref="D128:E128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:E129"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:C104"/>
-    <mergeCell ref="D103:E103"/>
-    <mergeCell ref="D104:E104"/>
-    <mergeCell ref="B125:C125"/>
-    <mergeCell ref="D125:E125"/>
-    <mergeCell ref="D100:E100"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:C102"/>
-    <mergeCell ref="D101:E101"/>
-    <mergeCell ref="D102:E102"/>
-    <mergeCell ref="B90:B91"/>
-    <mergeCell ref="C90:C91"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="B97:C97"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="B62:B63"/>
-    <mergeCell ref="C62:C63"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="B84:C84"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="B60:B61"/>
-    <mergeCell ref="C60:C61"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B183:B184"/>
+    <mergeCell ref="C183:C184"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="B8:B9"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:E43"/>
     <mergeCell ref="B21:B22"/>
@@ -2164,17 +2070,104 @@
     <mergeCell ref="C19:C20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="D20:E20"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="B62:B63"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="B60:B61"/>
+    <mergeCell ref="C60:C61"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="B90:B91"/>
+    <mergeCell ref="C90:C91"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="B97:C97"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="D103:E103"/>
+    <mergeCell ref="D104:E104"/>
+    <mergeCell ref="B125:C125"/>
+    <mergeCell ref="D125:E125"/>
+    <mergeCell ref="D100:E100"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="D101:E101"/>
+    <mergeCell ref="D102:E102"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:E131"/>
+    <mergeCell ref="D132:E132"/>
+    <mergeCell ref="B138:C138"/>
+    <mergeCell ref="D138:E138"/>
+    <mergeCell ref="D128:E128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:E129"/>
+    <mergeCell ref="D130:E130"/>
+    <mergeCell ref="B144:B145"/>
+    <mergeCell ref="C144:C145"/>
+    <mergeCell ref="D144:E144"/>
+    <mergeCell ref="D145:E145"/>
+    <mergeCell ref="B166:C166"/>
+    <mergeCell ref="D166:E166"/>
+    <mergeCell ref="D141:E141"/>
+    <mergeCell ref="B142:B143"/>
+    <mergeCell ref="C142:C143"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="D172:E172"/>
+    <mergeCell ref="D173:E173"/>
+    <mergeCell ref="D170:E170"/>
+    <mergeCell ref="D171:E171"/>
+    <mergeCell ref="B185:B186"/>
+    <mergeCell ref="C185:C186"/>
+    <mergeCell ref="D185:E185"/>
+    <mergeCell ref="D186:E186"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="D183:E183"/>
+    <mergeCell ref="D184:E184"/>
+    <mergeCell ref="B213:B214"/>
+    <mergeCell ref="C213:C214"/>
+    <mergeCell ref="D213:E213"/>
+    <mergeCell ref="D214:E214"/>
+    <mergeCell ref="B220:C220"/>
+    <mergeCell ref="D220:E220"/>
+    <mergeCell ref="D210:E210"/>
+    <mergeCell ref="B211:B212"/>
+    <mergeCell ref="C211:C212"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="D212:E212"/>
+    <mergeCell ref="B226:B227"/>
+    <mergeCell ref="C226:C227"/>
+    <mergeCell ref="D226:E226"/>
+    <mergeCell ref="D227:E227"/>
+    <mergeCell ref="D223:E223"/>
+    <mergeCell ref="B224:B225"/>
+    <mergeCell ref="C224:C225"/>
+    <mergeCell ref="D224:E224"/>
+    <mergeCell ref="D225:E225"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.62992125984251968" right="0.70866141732283472" top="0.19685039370078741" bottom="0.31496062992125984" header="0.11811023622047245" footer="0.31496062992125984"/>
